--- a/src/main/resources/SignInTestData.xlsx
+++ b/src/main/resources/SignInTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tahira\eclipse-workspace\com.target\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26366927-7F3B-4FBE-948D-8440E81439F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8194734D-91E2-4CB2-8F1F-3F5962AA2CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E1AA80E-CE36-444C-A2CB-79FC9199C46E}"/>
   </bookViews>
@@ -137,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -160,12 +160,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -176,24 +237,776 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -204,6 +1017,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{045B19CD-A90E-44C0-AFF0-6BDE81F7BD89}" name="Table2" displayName="Table2" ref="A1:F6" headerRowCount="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D8E21F5D-2C5B-4A19-850B-F28B189DF2D5}" name="Column1" totalsRowLabel="Total" headerRowDxfId="16" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{EEFF57EB-F277-4F18-917A-1017005E23B5}" name="Column2" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{A092CB35-9127-4418-851A-B61D7F826A59}" name="Column3" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F2B246F8-40AE-4832-B707-51DAEDD0927C}" name="Column4" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{28ACCAE1-35F2-42F8-B83F-BCB15C781F23}" name="Column5" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{DDD457C3-B36F-4637-9D61-AE6FF3F620A5}" name="Column6" totalsRowFunction="count" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,42 +1333,45 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.36328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="39.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="21.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -556,12 +1386,12 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -573,15 +1403,15 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -596,12 +1426,12 @@
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -613,180 +1443,42 @@
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F6">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB35C3CE-AEFD-4170-B96B-E7F4EB5F8B79}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{192A14A3-494E-4F24-9078-E1AEAD8E3F56}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5E471ED6-6928-4A8B-8F83-FBFDBA8F2E81}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{10BFEA92-CE30-4D38-BEE7-8355CB8F8235}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{270E5111-F843-4BAC-A259-5C17D6BE07A4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{4F34DDFC-E391-45A6-8C6F-7A3834F1A306}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{A5B41ADC-F399-4424-B2BD-FA24B6A43375}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB35C3CE-AEFD-4170-B96B-E7F4EB5F8B79}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A1:F6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{192A14A3-494E-4F24-9078-E1AEAD8E3F56}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5E471ED6-6928-4A8B-8F83-FBFDBA8F2E81}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{10BFEA92-CE30-4D38-BEE7-8355CB8F8235}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{270E5111-F843-4BAC-A259-5C17D6BE07A4}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A5</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/src/main/resources/SignInTestData.xlsx
+++ b/src/main/resources/SignInTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tahira\eclipse-workspace\com.target\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8194734D-91E2-4CB2-8F1F-3F5962AA2CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE656844-7E1B-46A0-9D4B-949617034E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E1AA80E-CE36-444C-A2CB-79FC9199C46E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3E1AA80E-CE36-444C-A2CB-79FC9199C46E}"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" r:id="rId1"/>
+    <sheet name="Maps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
   <si>
     <t>Test No</t>
   </si>
@@ -88,12 +89,30 @@
   <si>
     <t>G345h#$!</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>efgh</t>
+  </si>
+  <si>
+    <t>gracias</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +138,20 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -226,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -267,12 +300,1112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1020,14 +2153,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{045B19CD-A90E-44C0-AFF0-6BDE81F7BD89}" name="Table2" displayName="Table2" ref="A1:F6" headerRowCount="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{045B19CD-A90E-44C0-AFF0-6BDE81F7BD89}" name="Table2" displayName="Table2" ref="A1:F6" headerRowCount="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D8E21F5D-2C5B-4A19-850B-F28B189DF2D5}" name="Column1" totalsRowLabel="Total" headerRowDxfId="16" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{EEFF57EB-F277-4F18-917A-1017005E23B5}" name="Column2" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{A092CB35-9127-4418-851A-B61D7F826A59}" name="Column3" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{F2B246F8-40AE-4832-B707-51DAEDD0927C}" name="Column4" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{28ACCAE1-35F2-42F8-B83F-BCB15C781F23}" name="Column5" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{DDD457C3-B36F-4637-9D61-AE6FF3F620A5}" name="Column6" totalsRowFunction="count" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D8E21F5D-2C5B-4A19-850B-F28B189DF2D5}" name="Column1" totalsRowLabel="Total" headerRowDxfId="48" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{EEFF57EB-F277-4F18-917A-1017005E23B5}" name="Column2" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{A092CB35-9127-4418-851A-B61D7F826A59}" name="Column3" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{F2B246F8-40AE-4832-B707-51DAEDD0927C}" name="Column4" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{28ACCAE1-35F2-42F8-B83F-BCB15C781F23}" name="Column5" headerRowDxfId="37" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{DDD457C3-B36F-4637-9D61-AE6FF3F620A5}" name="Column6" totalsRowFunction="count" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D072EA5-0B9A-4965-B50F-151CF389CFFD}" name="Table22" displayName="Table22" ref="A1:I6" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{61A708DC-13C2-46FD-9F55-03AB09B0DA7A}" name="Column1" totalsRowLabel="Total" headerRowDxfId="28" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{562B5692-AEF4-4CF4-9EAD-227A487CA778}" name="Column2" headerRowDxfId="26" dataDxfId="10" totalsRowDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{5FF11987-DA7F-42C7-84FB-645CD85B641A}" name="Column7" headerRowDxfId="24" dataDxfId="9" totalsRowDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{3160B480-D7AF-40F6-9A6D-9352BE26C588}" name="Column3" headerRowDxfId="22" dataDxfId="8" totalsRowDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{D76E9320-E8F7-463B-B36D-6178214CF8E3}" name="Column9" headerRowDxfId="20" dataDxfId="7" totalsRowDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{D6C95260-A696-43C7-B7B1-D82F043CFCC8}" name="Column4" headerRowDxfId="18" dataDxfId="6" totalsRowDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{069CB106-1FCB-4F36-8DD4-8EF0CD086727}" name="Column8" headerRowDxfId="16" dataDxfId="5" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{AD1600A6-A785-47E1-B5D5-3EF5F6DEBF95}" name="Column5" headerRowDxfId="14" dataDxfId="4" totalsRowDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{E136EFF6-8224-4283-99E0-75CBD3E97A40}" name="Column6" totalsRowFunction="count" headerRowDxfId="12" dataDxfId="3" totalsRowDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1332,21 +2482,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AE7C0A-19F8-4DCC-B119-017B945C4EBA}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="21.36328125" style="1"/>
   </cols>
   <sheetData>
@@ -1370,7 +2520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1390,7 +2540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1410,12 +2560,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1430,13 +2580,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1450,7 +2598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1481,4 +2629,199 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92076561-BA53-4FD3-ADD7-601545F5C4DB}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="21" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="54" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="17" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="26.36328125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G8" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E13" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{D4E80898-8CC0-4FA4-9454-F7ADA8D0CC9B}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{71FDC966-B587-4144-A8F1-1B9F8D309E7F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/src/main/resources/SignInTestData.xlsx
+++ b/src/main/resources/SignInTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tahira\eclipse-workspace\com.target\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE656844-7E1B-46A0-9D4B-949617034E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A236AF2A-19BB-4182-BFEF-AE9ACF9AD7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3E1AA80E-CE36-444C-A2CB-79FC9199C46E}"/>
   </bookViews>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>Passward</t>
   </si>
   <si>
     <t>Y</t>
@@ -107,12 +104,15 @@
   <si>
     <t>No</t>
   </si>
+  <si>
+    <t>Password</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +137,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -312,20 +305,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -356,7 +349,959 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -370,6 +1315,54 @@
         <scheme val="none"/>
       </font>
       <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -404,1006 +1397,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2167,17 +2160,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D072EA5-0B9A-4965-B50F-151CF389CFFD}" name="Table22" displayName="Table22" ref="A1:I6" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D072EA5-0B9A-4965-B50F-151CF389CFFD}" name="Table22" displayName="Table22" ref="A1:I6" headerRowCount="0" headerRowDxfId="31" dataDxfId="29" totalsRowDxfId="27" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="26">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{61A708DC-13C2-46FD-9F55-03AB09B0DA7A}" name="Column1" totalsRowLabel="Total" headerRowDxfId="28" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{562B5692-AEF4-4CF4-9EAD-227A487CA778}" name="Column2" headerRowDxfId="26" dataDxfId="10" totalsRowDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{5FF11987-DA7F-42C7-84FB-645CD85B641A}" name="Column7" headerRowDxfId="24" dataDxfId="9" totalsRowDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{3160B480-D7AF-40F6-9A6D-9352BE26C588}" name="Column3" headerRowDxfId="22" dataDxfId="8" totalsRowDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{D76E9320-E8F7-463B-B36D-6178214CF8E3}" name="Column9" headerRowDxfId="20" dataDxfId="7" totalsRowDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{D6C95260-A696-43C7-B7B1-D82F043CFCC8}" name="Column4" headerRowDxfId="18" dataDxfId="6" totalsRowDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{069CB106-1FCB-4F36-8DD4-8EF0CD086727}" name="Column8" headerRowDxfId="16" dataDxfId="5" totalsRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{AD1600A6-A785-47E1-B5D5-3EF5F6DEBF95}" name="Column5" headerRowDxfId="14" dataDxfId="4" totalsRowDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{E136EFF6-8224-4283-99E0-75CBD3E97A40}" name="Column6" totalsRowFunction="count" headerRowDxfId="12" dataDxfId="3" totalsRowDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{61A708DC-13C2-46FD-9F55-03AB09B0DA7A}" name="Column1" totalsRowLabel="Total" headerRowDxfId="25" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{562B5692-AEF4-4CF4-9EAD-227A487CA778}" name="Column2" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{5FF11987-DA7F-42C7-84FB-645CD85B641A}" name="Column7" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{3160B480-D7AF-40F6-9A6D-9352BE26C588}" name="Column3" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{D76E9320-E8F7-463B-B36D-6178214CF8E3}" name="Column9" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{D6C95260-A696-43C7-B7B1-D82F043CFCC8}" name="Column4" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{069CB106-1FCB-4F36-8DD4-8EF0CD086727}" name="Column8" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{AD1600A6-A785-47E1-B5D5-3EF5F6DEBF95}" name="Column5" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E136EFF6-8224-4283-99E0-75CBD3E97A40}" name="Column6" totalsRowFunction="count" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2486,7 +2479,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2517,7 +2510,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="62" x14ac:dyDescent="0.35">
@@ -2525,19 +2518,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="62" x14ac:dyDescent="0.35">
@@ -2545,19 +2538,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="62" x14ac:dyDescent="0.35">
@@ -2565,19 +2558,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="62" x14ac:dyDescent="0.35">
@@ -2586,16 +2579,16 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="62" x14ac:dyDescent="0.35">
@@ -2603,19 +2596,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="F6" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2639,45 +2632,45 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="21" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="54" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="17" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6328125" style="21" customWidth="1"/>
-    <col min="11" max="16384" width="26.36328125" style="21"/>
+    <col min="1" max="1" width="9.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="18" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="54" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="17" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="26.36328125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>5</v>
+      <c r="I1" s="22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -2685,22 +2678,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -2708,25 +2701,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="22" t="s">
-        <v>12</v>
+      <c r="H3" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -2734,22 +2727,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -2757,22 +2750,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="22" t="s">
-        <v>13</v>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -2780,37 +2773,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G8" s="21" t="s">
-        <v>21</v>
+      <c r="G8" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C10" s="21" t="s">
-        <v>20</v>
+      <c r="C10" s="18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E13" s="21" t="s">
-        <v>22</v>
+      <c r="E13" s="18" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
